--- a/raw_data/20200818_saline/20200818_Sensor2_Test_80.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_80.xlsx
@@ -1,870 +1,1286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74679B19-BC7E-43C7-BA6C-F0036726E4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>71473.846898</v>
+        <v>71473.846898000003</v>
       </c>
       <c r="B2" s="1">
-        <v>19.853846</v>
+        <v>19.853846000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D2" s="1">
-        <v>-300.825000</v>
+        <v>-300.82499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>71484.544611</v>
+        <v>71484.544611000005</v>
       </c>
       <c r="G2" s="1">
-        <v>19.856818</v>
+        <v>19.856818000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.240000</v>
+        <v>1273.24</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.123000</v>
+        <v>-260.12299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>71495.052357</v>
+        <v>71495.052356999993</v>
       </c>
       <c r="L2" s="1">
-        <v>19.859737</v>
+        <v>19.859736999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.760000</v>
+        <v>1307.76</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.507000</v>
+        <v>-201.50700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>71505.334920</v>
+        <v>71505.334919999994</v>
       </c>
       <c r="Q2" s="1">
         <v>19.862593</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.302000</v>
+        <v>-184.30199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>71515.534153</v>
+        <v>71515.534153000001</v>
       </c>
       <c r="V2" s="1">
-        <v>19.865426</v>
+        <v>19.865425999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.690000</v>
+        <v>1333.69</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.716000</v>
+        <v>-171.71600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>71525.687288</v>
+        <v>71525.687288000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.868246</v>
+        <v>19.868245999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.800000</v>
+        <v>1351.8</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.060000</v>
+        <v>-170.06</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>71536.286304</v>
+        <v>71536.286303999994</v>
       </c>
       <c r="AF2" s="1">
         <v>19.871191</v>
       </c>
       <c r="AG2" s="1">
-        <v>1365.360000</v>
+        <v>1365.36</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.050000</v>
+        <v>-180.05</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>71546.414081</v>
+        <v>71546.414080999995</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.874004</v>
+        <v>19.874003999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1386.830000</v>
+        <v>1386.83</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.847000</v>
+        <v>-209.84700000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>71556.989817</v>
+        <v>71556.989816999994</v>
       </c>
       <c r="AP2" s="1">
         <v>19.876942</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1409.260000</v>
+        <v>1409.26</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.292000</v>
+        <v>-253.292</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>71567.985599</v>
+        <v>71567.985599000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.879996</v>
+        <v>19.879995999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1434.530000</v>
+        <v>1434.53</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.642000</v>
+        <v>-312.642</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>71579.028023</v>
+        <v>71579.028023000006</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.883063</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.320000</v>
+        <v>1454.32</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.132000</v>
+        <v>-364.13200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>71590.001512</v>
+        <v>71590.001512000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.886112</v>
+        <v>19.886112000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1541.050000</v>
+        <v>1541.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.278000</v>
+        <v>-609.27800000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>71600.987433</v>
+        <v>71600.987433000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>19.889163</v>
       </c>
       <c r="BK2" s="1">
-        <v>1697.230000</v>
+        <v>1697.23</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.830000</v>
+        <v>-1047.83</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>71612.837850</v>
+        <v>71612.837849999996</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.892455</v>
+        <v>19.892455000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.830000</v>
+        <v>-1804.83</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>71623.570283</v>
+        <v>71623.570282999994</v>
       </c>
       <c r="BT2" s="1">
         <v>19.895436</v>
       </c>
       <c r="BU2" s="1">
-        <v>2383.900000</v>
+        <v>2383.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2676.160000</v>
+        <v>-2676.16</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>71635.036765</v>
+        <v>71635.036764999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.898621</v>
+        <v>19.898620999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2863.780000</v>
+        <v>2863.78</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3622.220000</v>
+        <v>-3622.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>71646.009263</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.901669</v>
+        <v>19.901668999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>4261.060000</v>
+        <v>4261.0600000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5901.540000</v>
+        <v>-5901.54</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>71474.527644</v>
+        <v>71474.527644000002</v>
       </c>
       <c r="B3" s="1">
         <v>19.854035</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.320000</v>
+        <v>1248.32</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.850000</v>
+        <v>-300.85000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>71484.960272</v>
+        <v>71484.960271999997</v>
       </c>
       <c r="G3" s="1">
-        <v>19.856933</v>
+        <v>19.856933000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.960000</v>
+        <v>1272.96</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.602000</v>
+        <v>-260.60199999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>71495.461061</v>
+        <v>71495.461060999995</v>
       </c>
       <c r="L3" s="1">
-        <v>19.859850</v>
+        <v>19.859850000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.490000</v>
+        <v>1307.49</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.156000</v>
+        <v>-201.15600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>71505.689063</v>
+        <v>71505.689062999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.862691</v>
+        <v>19.862691000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.284000</v>
+        <v>-184.28399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>71515.916604</v>
+        <v>71515.916603999998</v>
       </c>
       <c r="V3" s="1">
-        <v>19.865532</v>
+        <v>19.865532000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.570000</v>
+        <v>1333.57</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.646000</v>
+        <v>-171.64599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>71526.069676</v>
+        <v>71526.069675999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.868353</v>
+        <v>19.868352999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.840000</v>
+        <v>1351.84</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.045000</v>
+        <v>-170.04499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>71536.718783</v>
+        <v>71536.718783000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.871311</v>
+        <v>19.871310999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.330000</v>
+        <v>1365.33</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.033000</v>
+        <v>-180.03299999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>71546.863458</v>
+        <v>71546.863458000007</v>
       </c>
       <c r="AK3" s="1">
         <v>19.874129</v>
       </c>
       <c r="AL3" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.842000</v>
+        <v>-209.84200000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>71557.414387</v>
+        <v>71557.414386999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.877060</v>
+        <v>19.87706</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.272000</v>
+        <v>-253.27199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>71568.351142</v>
@@ -873,1555 +1289,1555 @@
         <v>19.880098</v>
       </c>
       <c r="AV3" s="1">
-        <v>1434.570000</v>
+        <v>1434.57</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.627000</v>
+        <v>-312.62700000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>71579.397045</v>
+        <v>71579.397045000005</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.883166</v>
+        <v>19.883165999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.320000</v>
+        <v>1454.32</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.116000</v>
+        <v>-364.11599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>71590.366110</v>
+        <v>71590.366110000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.886213</v>
+        <v>19.886213000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.270000</v>
+        <v>-609.27</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>71601.754257</v>
+        <v>71601.754256999993</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.889376</v>
+        <v>19.889375999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1697.170000</v>
+        <v>1697.17</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>71613.337785</v>
+        <v>71613.337784999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.892594</v>
+        <v>19.892593999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.920000</v>
+        <v>-1804.92</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>71624.048890</v>
+        <v>71624.048890000005</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.895569</v>
+        <v>19.895568999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2383.760000</v>
+        <v>2383.7600000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2676.300000</v>
+        <v>-2676.3</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>71635.515932</v>
+        <v>71635.515931999995</v>
       </c>
       <c r="BY3" s="1">
         <v>19.898754</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2863.380000</v>
+        <v>2863.38</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3621.980000</v>
+        <v>-3621.98</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>71646.925374</v>
+        <v>71646.925373999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.901924</v>
+        <v>19.901924000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4261.030000</v>
+        <v>4261.03</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5884.230000</v>
+        <v>-5884.23</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>71474.879072</v>
+        <v>71474.879071999996</v>
       </c>
       <c r="B4" s="1">
-        <v>19.854133</v>
+        <v>19.854133000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.500000</v>
+        <v>1248.5</v>
       </c>
       <c r="D4" s="1">
-        <v>-300.643000</v>
+        <v>-300.64299999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>71485.303499</v>
+        <v>71485.303499000001</v>
       </c>
       <c r="G4" s="1">
-        <v>19.857029</v>
+        <v>19.857029000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.030000</v>
+        <v>1273.03</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.886000</v>
+        <v>-260.88600000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>71495.802340</v>
+        <v>71495.802339999995</v>
       </c>
       <c r="L4" s="1">
         <v>19.859945</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.326000</v>
+        <v>-201.32599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>71506.034775</v>
+        <v>71506.034774999993</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.862787</v>
+        <v>19.862787000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.232000</v>
+        <v>-184.232</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>71516.356521</v>
+        <v>71516.356520999994</v>
       </c>
       <c r="V4" s="1">
         <v>19.865655</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.590000</v>
+        <v>1333.59</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.557000</v>
+        <v>-171.55699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>71526.507644</v>
+        <v>71526.507643999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.868474</v>
+        <v>19.868473999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.058000</v>
+        <v>-170.05799999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>71537.014894</v>
+        <v>71537.014894000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.871393</v>
+        <v>19.871393000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1365.360000</v>
+        <v>1365.36</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.991000</v>
+        <v>-179.99100000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>71547.176929</v>
+        <v>71547.176928999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.874216</v>
+        <v>19.874216000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.838000</v>
+        <v>-209.83799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>71557.773459</v>
+        <v>71557.773459000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.877159</v>
+        <v>19.877158999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.268000</v>
+        <v>-253.268</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>71568.716691</v>
+        <v>71568.716690999994</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.880199</v>
+        <v>19.880199000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1434.570000</v>
+        <v>1434.57</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.641000</v>
+        <v>-312.64100000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>71580.083045</v>
+        <v>71580.083045000007</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.883356</v>
+        <v>19.883355999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.140000</v>
+        <v>-364.14</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>71591.090262</v>
+        <v>71591.090261999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.886414</v>
+        <v>19.886413999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1541.070000</v>
+        <v>1541.07</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.292000</v>
+        <v>-609.29200000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>71602.154489</v>
+        <v>71602.154488999993</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.889487</v>
+        <v>19.889486999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1697.210000</v>
+        <v>1697.21</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.800000</v>
+        <v>-1047.8</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>71613.754953</v>
+        <v>71613.754952999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.892710</v>
+        <v>19.892710000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.470000</v>
+        <v>1993.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.910000</v>
+        <v>-1804.91</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>71624.481899</v>
+        <v>71624.481899000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.895689</v>
+        <v>19.895689000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2383.620000</v>
+        <v>2383.62</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2676.460000</v>
+        <v>-2676.46</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>71636.266379</v>
+        <v>71636.266378999993</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.898963</v>
+        <v>19.898962999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2862.800000</v>
+        <v>2862.8</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3622.080000</v>
+        <v>-3622.08</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>71647.137692</v>
+        <v>71647.137692000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.901983</v>
+        <v>19.901983000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4258.120000</v>
+        <v>4258.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5901.500000</v>
+        <v>-5901.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>71475.219823</v>
+        <v>71475.219823000007</v>
       </c>
       <c r="B5" s="1">
-        <v>19.854228</v>
+        <v>19.854227999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.390000</v>
+        <v>1248.3900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-301.051000</v>
+        <v>-301.05099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>71485.648211</v>
+        <v>71485.648211000007</v>
       </c>
       <c r="G5" s="1">
         <v>19.857125</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.310000</v>
+        <v>1272.31</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.148000</v>
+        <v>-261.14800000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>71496.149508</v>
+        <v>71496.149508000002</v>
       </c>
       <c r="L5" s="1">
         <v>19.860042</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.750000</v>
+        <v>1307.75</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.513000</v>
+        <v>-201.51300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>71506.467782</v>
+        <v>71506.467782000007</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.862908</v>
+        <v>19.862908000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.810000</v>
+        <v>1319.81</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.353000</v>
+        <v>-184.35300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>71516.632794</v>
+        <v>71516.632794000005</v>
       </c>
       <c r="V5" s="1">
         <v>19.865731</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.430000</v>
+        <v>1333.43</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.692000</v>
+        <v>-171.69200000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>71526.788883</v>
+        <v>71526.788883000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.868552</v>
+        <v>19.868552000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.176000</v>
+        <v>-170.17599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>71537.361101</v>
+        <v>71537.361101000002</v>
       </c>
       <c r="AF5" s="1">
         <v>19.871489</v>
       </c>
       <c r="AG5" s="1">
-        <v>1365.300000</v>
+        <v>1365.3</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.953000</v>
+        <v>-179.953</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>71547.524662</v>
+        <v>71547.524661999996</v>
       </c>
       <c r="AK5" s="1">
         <v>19.874312</v>
       </c>
       <c r="AL5" s="1">
-        <v>1386.870000</v>
+        <v>1386.87</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.871000</v>
+        <v>-209.87100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>71558.133090</v>
+        <v>71558.133090000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.877259</v>
+        <v>19.877258999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.292000</v>
+        <v>-253.292</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>71569.442836</v>
+        <v>71569.442836000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.880401</v>
+        <v>19.880400999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1434.590000</v>
+        <v>1434.59</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.633000</v>
+        <v>-312.63299999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>71580.492708</v>
+        <v>71580.492708000005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.883470</v>
+        <v>19.883469999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.153000</v>
+        <v>-364.15300000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>71591.470203</v>
+        <v>71591.470203000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.886520</v>
+        <v>19.886520000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1541.070000</v>
+        <v>1541.07</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.312000</v>
+        <v>-609.31200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>71602.524007</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.889590</v>
+        <v>19.889589999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1697.120000</v>
+        <v>1697.12</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.780000</v>
+        <v>-1047.78</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>71614.475607</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.892910</v>
+        <v>19.892910000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.500000</v>
+        <v>1993.5</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.910000</v>
+        <v>-1804.91</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>71625.202622</v>
+        <v>71625.202621999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.895890</v>
+        <v>19.895890000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.580000</v>
+        <v>2383.58</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2676.540000</v>
+        <v>-2676.54</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>71636.381461</v>
+        <v>71636.381460999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.898995</v>
+        <v>19.898994999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2863.130000</v>
+        <v>2863.13</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3622.930000</v>
+        <v>-3622.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>71647.653499</v>
+        <v>71647.653498999993</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.902126</v>
+        <v>19.902125999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4275.800000</v>
+        <v>4275.8</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5900.660000</v>
+        <v>-5900.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>71475.565535</v>
+        <v>71475.565535000002</v>
       </c>
       <c r="B6" s="1">
-        <v>19.854324</v>
+        <v>19.854323999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.100000</v>
+        <v>1248.0999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-300.911000</v>
+        <v>-300.911</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>71486.080723</v>
+        <v>71486.080723000006</v>
       </c>
       <c r="G6" s="1">
-        <v>19.857245</v>
+        <v>19.857244999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.160000</v>
+        <v>1273.1600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.313000</v>
+        <v>-261.31299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>71496.575785</v>
+        <v>71496.575784999994</v>
       </c>
       <c r="L6" s="1">
-        <v>19.860160</v>
+        <v>19.86016</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.710000</v>
+        <v>1307.71</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.539000</v>
+        <v>-201.53899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>71506.740094</v>
+        <v>71506.740093999993</v>
       </c>
       <c r="Q6" s="1">
         <v>19.862983</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.820000</v>
+        <v>1319.82</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.339000</v>
+        <v>-184.339</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>71516.980985</v>
+        <v>71516.980985000002</v>
       </c>
       <c r="V6" s="1">
         <v>19.865828</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.650000</v>
+        <v>1333.65</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.603000</v>
+        <v>-171.60300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>71527.133595</v>
+        <v>71527.133595000007</v>
       </c>
       <c r="AA6" s="1">
         <v>19.868648</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.790000</v>
+        <v>1351.79</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.207000</v>
+        <v>-170.20699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>71537.700365</v>
+        <v>71537.700364999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.871583</v>
+        <v>19.871583000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1365.560000</v>
+        <v>1365.56</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.217000</v>
+        <v>-180.21700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>71548.222993</v>
+        <v>71548.222993000003</v>
       </c>
       <c r="AK6" s="1">
         <v>19.874506</v>
       </c>
       <c r="AL6" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.790000</v>
+        <v>-209.79</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>71558.856720</v>
+        <v>71558.856719999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.877460</v>
+        <v>19.877459999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.271000</v>
+        <v>-253.27099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>71569.807396</v>
+        <v>71569.807396000004</v>
       </c>
       <c r="AU6" s="1">
         <v>19.880502</v>
       </c>
       <c r="AV6" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.610000</v>
+        <v>-312.61</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>71580.874165</v>
+        <v>71580.874165000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.883576</v>
+        <v>19.883576000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.133000</v>
+        <v>-364.13299999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>71591.831750</v>
+        <v>71591.831749999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.886620</v>
+        <v>19.886620000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1541.070000</v>
+        <v>1541.07</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.286000</v>
+        <v>-609.28599999999994</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>71603.219894</v>
+        <v>71603.219893999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.889783</v>
+        <v>19.889783000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1697.120000</v>
+        <v>1697.12</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>71614.587703</v>
+        <v>71614.587702999997</v>
       </c>
       <c r="BO6" s="1">
         <v>19.892941</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.490000</v>
+        <v>1993.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.850000</v>
+        <v>-1804.85</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>71625.312728</v>
+        <v>71625.312728000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.895920</v>
+        <v>19.89592</v>
       </c>
       <c r="BU6" s="1">
-        <v>2383.430000</v>
+        <v>2383.4299999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2676.480000</v>
+        <v>-2676.48</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>71636.805002</v>
+        <v>71636.805001999994</v>
       </c>
       <c r="BY6" s="1">
         <v>19.899113</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2863.150000</v>
+        <v>2863.15</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3622.970000</v>
+        <v>-3622.97</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>71648.176315</v>
+        <v>71648.176315000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.902271</v>
+        <v>19.902270999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4273.250000</v>
+        <v>4273.25</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5884.410000</v>
+        <v>-5884.41</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>71476.000030</v>
+        <v>71476.000029999996</v>
       </c>
       <c r="B7" s="1">
-        <v>19.854444</v>
+        <v>19.854444000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.180000</v>
+        <v>1248.18</v>
       </c>
       <c r="D7" s="1">
-        <v>-300.575000</v>
+        <v>-300.57499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>71486.346114</v>
       </c>
       <c r="G7" s="1">
-        <v>19.857318</v>
+        <v>19.857317999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.950000</v>
+        <v>1272.95</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.050000</v>
+        <v>-261.05</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>71496.841923</v>
       </c>
       <c r="L7" s="1">
-        <v>19.860234</v>
+        <v>19.860233999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.519000</v>
+        <v>-201.51900000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>71507.085301</v>
+        <v>71507.085300999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.863079</v>
+        <v>19.863078999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.268000</v>
+        <v>-184.268</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>71517.321240</v>
+        <v>71517.321240000005</v>
       </c>
       <c r="V7" s="1">
-        <v>19.865923</v>
+        <v>19.865922999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.590000</v>
+        <v>1333.59</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.516000</v>
+        <v>-171.51599999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>71527.487274</v>
+        <v>71527.487273999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.868746</v>
+        <v>19.868746000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.188000</v>
+        <v>-170.18799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>71538.390332</v>
+        <v>71538.390331999995</v>
       </c>
       <c r="AF7" s="1">
         <v>19.871775</v>
       </c>
       <c r="AG7" s="1">
-        <v>1365.270000</v>
+        <v>1365.27</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.069000</v>
+        <v>-180.06899999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>71548.571183</v>
+        <v>71548.571182999993</v>
       </c>
       <c r="AK7" s="1">
         <v>19.874603</v>
       </c>
       <c r="AL7" s="1">
-        <v>1386.860000</v>
+        <v>1386.86</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.843000</v>
+        <v>-209.84299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>71559.214832</v>
+        <v>71559.214831999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.877560</v>
+        <v>19.877559999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.270000</v>
+        <v>-253.27</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>71570.174931</v>
+        <v>71570.174931000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.880604</v>
+        <v>19.880604000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.650000</v>
+        <v>-312.64999999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>71581.552194</v>
+        <v>71581.552194000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.883764</v>
+        <v>19.883763999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.136000</v>
+        <v>-364.13600000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>71592.509284</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.886808</v>
+        <v>19.886807999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1541.070000</v>
+        <v>1541.07</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.290000</v>
+        <v>-609.29</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>71603.654389</v>
+        <v>71603.654389000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.889904</v>
+        <v>19.889904000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1697.150000</v>
+        <v>1697.15</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.820000</v>
+        <v>-1047.82</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>71614.998544</v>
+        <v>71614.998544000002</v>
       </c>
       <c r="BO7" s="1">
         <v>19.893055</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.340000</v>
+        <v>1993.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.920000</v>
+        <v>-1804.92</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>71625.752152</v>
+        <v>71625.752152000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.896042</v>
+        <v>19.896042000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.590000</v>
+        <v>2383.59</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2676.300000</v>
+        <v>-2676.3</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>71637.251402</v>
+        <v>71637.251401999994</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.899237</v>
+        <v>19.899236999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2863.680000</v>
+        <v>2863.68</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3621.870000</v>
+        <v>-3621.87</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>71648.691168</v>
+        <v>71648.691168000005</v>
       </c>
       <c r="CD7" s="1">
         <v>19.902414</v>
       </c>
       <c r="CE7" s="1">
-        <v>4274.730000</v>
+        <v>4274.7299999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5890.530000</v>
+        <v>-5890.53</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>71476.272831</v>
+        <v>71476.272830999995</v>
       </c>
       <c r="B8" s="1">
-        <v>19.854520</v>
+        <v>19.854520000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.370000</v>
+        <v>1248.3699999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-300.738000</v>
+        <v>-300.738</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>71486.689312</v>
+        <v>71486.689312000002</v>
       </c>
       <c r="G8" s="1">
-        <v>19.857414</v>
+        <v>19.857413999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.390000</v>
+        <v>1272.3900000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.948000</v>
+        <v>-260.94799999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>71497.190610</v>
+        <v>71497.190610000005</v>
       </c>
       <c r="L8" s="1">
-        <v>19.860331</v>
+        <v>19.860330999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.312000</v>
+        <v>-201.31200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>71507.434499</v>
+        <v>71507.434498999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.863176</v>
+        <v>19.863175999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.920000</v>
+        <v>1319.92</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.225000</v>
+        <v>-184.22499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>71518.007703</v>
+        <v>71518.007702999996</v>
       </c>
       <c r="V8" s="1">
-        <v>19.866113</v>
+        <v>19.866112999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.664000</v>
+        <v>-171.66399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>71528.179163</v>
+        <v>71528.179162999993</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.868939</v>
+        <v>19.868939000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.820000</v>
+        <v>1351.82</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.018000</v>
+        <v>-170.018</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>71538.741467</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.871873</v>
+        <v>19.871873000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1365.320000</v>
+        <v>1365.32</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.959000</v>
+        <v>-179.959</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>71548.923870</v>
+        <v>71548.923869999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.874701</v>
+        <v>19.874701000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1386.870000</v>
+        <v>1386.87</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.836000</v>
+        <v>-209.83600000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>71559.575920</v>
+        <v>71559.575920000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.877660</v>
+        <v>19.877659999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.301000</v>
+        <v>-253.30099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>71570.851979</v>
+        <v>71570.851978999999</v>
       </c>
       <c r="AU8" s="1">
         <v>19.880792</v>
       </c>
       <c r="AV8" s="1">
-        <v>1434.560000</v>
+        <v>1434.56</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.641000</v>
+        <v>-312.64100000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>71581.957404</v>
+        <v>71581.957404000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.883877</v>
+        <v>19.883876999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.310000</v>
+        <v>1454.31</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.137000</v>
+        <v>-364.137</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>71592.944772</v>
+        <v>71592.944772000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.886929</v>
+        <v>19.886928999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1541.090000</v>
+        <v>1541.09</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.295000</v>
+        <v>-609.29499999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>71604.026917</v>
+        <v>71604.026916999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.890007</v>
+        <v>19.890007000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1697.140000</v>
+        <v>1697.14</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.790000</v>
+        <v>-1047.79</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>71615.395190</v>
+        <v>71615.395189999996</v>
       </c>
       <c r="BO8" s="1">
         <v>19.893165</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.490000</v>
+        <v>1993.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.930000</v>
+        <v>-1804.93</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>71626.167800</v>
+        <v>71626.167799999996</v>
       </c>
       <c r="BT8" s="1">
         <v>19.896158</v>
       </c>
       <c r="BU8" s="1">
-        <v>2383.170000</v>
+        <v>2383.17</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2676.220000</v>
+        <v>-2676.22</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>71637.684941</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.899357</v>
+        <v>19.899356999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2862.580000</v>
+        <v>2862.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3622.060000</v>
+        <v>-3622.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>71649.243177</v>
+        <v>71649.243176999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.902568</v>
+        <v>19.902567999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4275.060000</v>
+        <v>4275.0600000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5900.810000</v>
+        <v>-5900.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>71476.616558</v>
+        <v>71476.616557999994</v>
       </c>
       <c r="B9" s="1">
         <v>19.854616</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.420000</v>
+        <v>1248.42</v>
       </c>
       <c r="D9" s="1">
-        <v>-300.679000</v>
+        <v>-300.67899999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>71487.033040</v>
+        <v>71487.033039999995</v>
       </c>
       <c r="G9" s="1">
         <v>19.857509</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.220000</v>
+        <v>1272.22</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.540000</v>
+        <v>-260.54000000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>71497.546738</v>
+        <v>71497.546738000005</v>
       </c>
       <c r="L9" s="1">
-        <v>19.860430</v>
+        <v>19.860430000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.980000</v>
+        <v>1307.98</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.606000</v>
+        <v>-201.60599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>71508.130867</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.863370</v>
+        <v>19.86337</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.257000</v>
+        <v>-184.25700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>71518.351430</v>
+        <v>71518.351429999995</v>
       </c>
       <c r="V9" s="1">
-        <v>19.866209</v>
+        <v>19.866209000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.720000</v>
+        <v>1333.72</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.812000</v>
+        <v>-171.81200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>71528.528841</v>
+        <v>71528.528841000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.869036</v>
+        <v>19.869036000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.710000</v>
+        <v>1351.71</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.119000</v>
+        <v>-170.119</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>71539.085195</v>
+        <v>71539.085195000007</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.871968</v>
+        <v>19.871967999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1365.330000</v>
+        <v>1365.33</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.022000</v>
+        <v>-180.02199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>71549.585006</v>
+        <v>71549.585005999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.874885</v>
+        <v>19.874884999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1386.870000</v>
+        <v>1386.87</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.841000</v>
+        <v>-209.84100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>71560.250975</v>
+        <v>71560.250975000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.877847</v>
+        <v>19.877846999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.322000</v>
+        <v>-253.322</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>71571.268144</v>
+        <v>71571.268144000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.880908</v>
+        <v>19.880908000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.644000</v>
+        <v>-312.64400000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>71582.335347</v>
@@ -2430,88 +2846,88 @@
         <v>19.883982</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.310000</v>
+        <v>1454.31</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.091000</v>
+        <v>-364.09100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>71593.306355</v>
+        <v>71593.306354999993</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.887030</v>
+        <v>19.887029999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.281000</v>
+        <v>-609.28099999999995</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>71604.403853</v>
+        <v>71604.403852999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.890112</v>
+        <v>19.890111999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1697.030000</v>
+        <v>1697.03</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.750000</v>
+        <v>-1047.75</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>71615.821751</v>
+        <v>71615.821750999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.893284</v>
+        <v>19.893284000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.330000</v>
+        <v>1993.33</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.840000</v>
+        <v>-1804.84</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>71626.606761</v>
+        <v>71626.606761000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.896280</v>
+        <v>19.896280000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2383.640000</v>
+        <v>2383.64</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2676.250000</v>
+        <v>-2676.25</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>71638.141752</v>
+        <v>71638.141751999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.899484</v>
+        <v>19.899484000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2862.440000</v>
+        <v>2862.44</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3622.410000</v>
+        <v>-3622.41</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>71649.771945</v>
@@ -2520,467 +2936,467 @@
         <v>19.902714</v>
       </c>
       <c r="CE9" s="1">
-        <v>4273.410000</v>
+        <v>4273.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5884.460000</v>
+        <v>-5884.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>71476.959293</v>
+        <v>71476.959293000007</v>
       </c>
       <c r="B10" s="1">
-        <v>19.854711</v>
+        <v>19.854711000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-300.661000</v>
+        <v>-300.661</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>71487.729437</v>
+        <v>71487.729437000002</v>
       </c>
       <c r="G10" s="1">
-        <v>19.857703</v>
+        <v>19.857703000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.329000</v>
+        <v>-261.32900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>71498.233702</v>
+        <v>71498.233701999998</v>
       </c>
       <c r="L10" s="1">
-        <v>19.860620</v>
+        <v>19.860620000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.670000</v>
+        <v>1307.67</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.353000</v>
+        <v>-201.35300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>71508.478563</v>
+        <v>71508.478562999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.863466</v>
+        <v>19.863465999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.280000</v>
+        <v>-184.28</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>71518.695158</v>
+        <v>71518.695158000002</v>
       </c>
       <c r="V10" s="1">
         <v>19.866304</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.520000</v>
+        <v>1333.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.664000</v>
+        <v>-171.66399999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>71528.880506</v>
+        <v>71528.880506000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.869133</v>
+        <v>19.869133000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.050000</v>
+        <v>-170.05</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>71539.747354</v>
+        <v>71539.747354000006</v>
       </c>
       <c r="AF10" s="1">
         <v>19.872152</v>
       </c>
       <c r="AG10" s="1">
-        <v>1365.290000</v>
+        <v>1365.29</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.948000</v>
+        <v>-179.94800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>71549.968413</v>
+        <v>71549.968412999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.874991</v>
+        <v>19.874991000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.801000</v>
+        <v>-209.80099999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>71560.679551</v>
+        <v>71560.679550999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.877967</v>
+        <v>19.877967000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.322000</v>
+        <v>-253.322</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>71571.633664</v>
+        <v>71571.633663999994</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.881009</v>
+        <v>19.881008999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1434.560000</v>
+        <v>1434.56</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.620000</v>
+        <v>-312.62</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>71582.723218</v>
+        <v>71582.723217999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.884090</v>
+        <v>19.88409</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.081000</v>
+        <v>-364.08100000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>71593.669922</v>
+        <v>71593.669922000001</v>
       </c>
       <c r="BE10" s="1">
         <v>19.887131</v>
       </c>
       <c r="BF10" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.275000</v>
+        <v>-609.27499999999998</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>71604.843798</v>
+        <v>71604.843798000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>19.890234</v>
       </c>
       <c r="BK10" s="1">
-        <v>1697.110000</v>
+        <v>1697.11</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>71616.217062</v>
+        <v>71616.217061999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.893394</v>
+        <v>19.893394000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.870000</v>
+        <v>-1804.87</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>71626.999591</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.896389</v>
+        <v>19.896388999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2383.470000</v>
+        <v>2383.4699999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2675.990000</v>
+        <v>-2675.99</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>71638.591592</v>
+        <v>71638.591591999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.899609</v>
+        <v>19.899609000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2862.750000</v>
+        <v>2862.75</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3622.840000</v>
+        <v>-3622.84</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>71650.293704</v>
+        <v>71650.293703999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.902859</v>
+        <v>19.902858999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4258.830000</v>
+        <v>4258.83</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5886.200000</v>
+        <v>-5886.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>71477.639804</v>
+        <v>71477.639804000006</v>
       </c>
       <c r="B11" s="1">
-        <v>19.854900</v>
+        <v>19.854900000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.800000</v>
+        <v>1247.8</v>
       </c>
       <c r="D11" s="1">
-        <v>-300.727000</v>
+        <v>-300.72699999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>71488.074638</v>
+        <v>71488.074638000006</v>
       </c>
       <c r="G11" s="1">
         <v>19.857799</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.460000</v>
+        <v>1272.46</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.969000</v>
+        <v>-260.96899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>71498.583872</v>
+        <v>71498.583872000003</v>
       </c>
       <c r="L11" s="1">
-        <v>19.860718</v>
+        <v>19.860717999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.960000</v>
+        <v>1307.96</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.539000</v>
+        <v>-201.53899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>71508.830723</v>
+        <v>71508.830723000006</v>
       </c>
       <c r="Q11" s="1">
         <v>19.863564</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.328000</v>
+        <v>-184.328</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>71519.367734</v>
+        <v>71519.367733999999</v>
       </c>
       <c r="V11" s="1">
         <v>19.866491</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.791000</v>
+        <v>-171.791</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>71529.550136</v>
+        <v>71529.550136000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.869319</v>
+        <v>19.869319000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.243000</v>
+        <v>-170.24299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>71540.114910</v>
+        <v>71540.114910000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.872254</v>
+        <v>19.872254000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1365.490000</v>
+        <v>1365.49</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.056000</v>
+        <v>-180.05600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>71550.318588</v>
+        <v>71550.318587999995</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.875088</v>
+        <v>19.875088000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1386.830000</v>
+        <v>1386.83</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.834000</v>
+        <v>-209.834</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>71561.038654</v>
+        <v>71561.038654000004</v>
       </c>
       <c r="AP11" s="1">
         <v>19.878066</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.298000</v>
+        <v>-253.298</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>71571.997241</v>
+        <v>71571.997241000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.881110</v>
+        <v>19.88111</v>
       </c>
       <c r="AV11" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.630000</v>
+        <v>-312.63</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>71583.146347</v>
+        <v>71583.146347000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.884207</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.310000</v>
+        <v>1454.31</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.110000</v>
+        <v>-364.11</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>71594.100305</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.887250</v>
+        <v>19.887250000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1541.070000</v>
+        <v>1541.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.235000</v>
+        <v>-609.23500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>71605.187523</v>
+        <v>71605.187523000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.890330</v>
+        <v>19.890329999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1697.040000</v>
+        <v>1697.04</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.790000</v>
+        <v>-1047.79</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>71616.638196</v>
@@ -2989,61 +3405,61 @@
         <v>19.893511</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.770000</v>
+        <v>-1804.77</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>71627.413255</v>
+        <v>71627.413255000007</v>
       </c>
       <c r="BT11" s="1">
         <v>19.896504</v>
       </c>
       <c r="BU11" s="1">
-        <v>2383.490000</v>
+        <v>2383.4899999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2676.120000</v>
+        <v>-2676.12</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>71639.014183</v>
+        <v>71639.014183000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.899726</v>
+        <v>19.899726000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2862.820000</v>
+        <v>2862.82</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3621.560000</v>
+        <v>-3621.56</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>71650.809543</v>
+        <v>71650.809542999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.903003</v>
+        <v>19.903002999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4260.920000</v>
+        <v>4260.92</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5899.750000</v>
+        <v>-5899.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>71477.984524</v>
       </c>
@@ -3051,450 +3467,450 @@
         <v>19.854996</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-300.675000</v>
+        <v>-300.67500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>71488.420388</v>
+        <v>71488.420387999999</v>
       </c>
       <c r="G12" s="1">
-        <v>19.857895</v>
+        <v>19.857894999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.090000</v>
+        <v>1272.0899999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.459000</v>
+        <v>-260.459</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>71499.238128</v>
+        <v>71499.238127999997</v>
       </c>
       <c r="L12" s="1">
         <v>19.860899</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.740000</v>
+        <v>1307.74</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.310000</v>
+        <v>-201.31</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>71509.501811</v>
+        <v>71509.501810999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.863751</v>
+        <v>19.863751000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.253000</v>
+        <v>-184.25299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>71519.737286</v>
+        <v>71519.737286000003</v>
       </c>
       <c r="V12" s="1">
-        <v>19.866594</v>
+        <v>19.866593999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.530000</v>
+        <v>1333.53</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.520000</v>
+        <v>-171.52</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>71529.929047</v>
+        <v>71529.929046999998</v>
       </c>
       <c r="AA12" s="1">
         <v>19.869425</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.700000</v>
+        <v>1351.7</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.071000</v>
+        <v>-170.071</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>71540.460105</v>
+        <v>71540.460105000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.872350</v>
+        <v>19.872350000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.011000</v>
+        <v>-180.011</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71550.663340</v>
+        <v>71550.663339999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.875184</v>
+        <v>19.875184000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1386.860000</v>
+        <v>1386.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>71561.400205</v>
+        <v>71561.400204999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.878167</v>
+        <v>19.878167000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.252000</v>
+        <v>-253.25200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>71572.434206</v>
+        <v>71572.434206000005</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.881232</v>
+        <v>19.881232000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1434.540000</v>
+        <v>1434.54</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.589000</v>
+        <v>-312.589</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>71583.440928</v>
+        <v>71583.440927999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.884289</v>
+        <v>19.884288999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.121000</v>
+        <v>-364.12099999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>71594.389122</v>
+        <v>71594.389121999993</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.887330</v>
+        <v>19.887329999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.246000</v>
+        <v>-609.24599999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>71605.562499</v>
+        <v>71605.562499000007</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.890434</v>
+        <v>19.890433999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1697.070000</v>
+        <v>1697.07</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>71617.034468</v>
+        <v>71617.034467999998</v>
       </c>
       <c r="BO12" s="1">
         <v>19.893621</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.290000</v>
+        <v>1993.29</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.660000</v>
+        <v>-1804.66</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>71627.826918</v>
+        <v>71627.826918000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.896619</v>
+        <v>19.896619000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2383.060000</v>
+        <v>2383.06</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2675.880000</v>
+        <v>-2675.88</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>71639.439750</v>
+        <v>71639.439750000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.899844</v>
+        <v>19.899844000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2862.340000</v>
+        <v>2862.34</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3622.380000</v>
+        <v>-3622.38</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>71651.326375</v>
+        <v>71651.326375000004</v>
       </c>
       <c r="CD12" s="1">
         <v>19.903146</v>
       </c>
       <c r="CE12" s="1">
-        <v>4273.890000</v>
+        <v>4273.8900000000003</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5895.160000</v>
+        <v>-5895.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>71478.327755</v>
+        <v>71478.327755000006</v>
       </c>
       <c r="B13" s="1">
-        <v>19.855091</v>
+        <v>19.855091000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.170000</v>
+        <v>1248.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-300.830000</v>
+        <v>-300.83</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>71489.074086</v>
+        <v>71489.074085999993</v>
       </c>
       <c r="G13" s="1">
-        <v>19.858076</v>
+        <v>19.858076000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.370000</v>
+        <v>1273.3699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.270000</v>
+        <v>-260.27</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>71499.617039</v>
+        <v>71499.617039000004</v>
       </c>
       <c r="L13" s="1">
-        <v>19.861005</v>
+        <v>19.861004999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.399000</v>
+        <v>-201.399</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>71509.874589</v>
+        <v>71509.874588999999</v>
       </c>
       <c r="Q13" s="1">
         <v>19.863854</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.230000</v>
+        <v>-184.23</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>71520.081476</v>
+        <v>71520.081476000007</v>
       </c>
       <c r="V13" s="1">
-        <v>19.866689</v>
+        <v>19.866689000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.480000</v>
+        <v>1333.48</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.580000</v>
+        <v>-171.58</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>71530.274301</v>
+        <v>71530.274300999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.869521</v>
+        <v>19.869520999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.031000</v>
+        <v>-170.03100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>71540.805066</v>
+        <v>71540.805066000001</v>
       </c>
       <c r="AF13" s="1">
         <v>19.872446</v>
       </c>
       <c r="AG13" s="1">
-        <v>1365.250000</v>
+        <v>1365.25</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.086000</v>
+        <v>-180.08600000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>71551.081436</v>
+        <v>71551.081435999993</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.875300</v>
+        <v>19.875299999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1386.830000</v>
+        <v>1386.83</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.822000</v>
+        <v>-209.822</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>71561.835693</v>
+        <v>71561.835693000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.878288</v>
+        <v>19.878288000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.288000</v>
+        <v>-253.28800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>71572.722878</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.881312</v>
+        <v>19.881312000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.657000</v>
+        <v>-312.65699999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>71583.801024</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.884389</v>
+        <v>19.884388999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.109000</v>
+        <v>-364.10899999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>71594.752689</v>
+        <v>71594.752689000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.887431</v>
+        <v>19.887430999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1541.060000</v>
+        <v>1541.06</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.286000</v>
+        <v>-609.28599999999994</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>71605.938002</v>
+        <v>71605.938001999995</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.890538</v>
+        <v>19.890537999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1697.020000</v>
+        <v>1697.02</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.730000</v>
+        <v>-1047.73</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>71617.470984</v>
@@ -3503,3401 +3919,3402 @@
         <v>19.893742</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.230000</v>
+        <v>1993.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.850000</v>
+        <v>-1804.85</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>71628.659205</v>
+        <v>71628.659205000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.896850</v>
+        <v>19.896850000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2383.450000</v>
+        <v>2383.4499999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2676.030000</v>
+        <v>-2676.03</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>71639.859894</v>
+        <v>71639.859893999994</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.899961</v>
+        <v>19.899961000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2862.970000</v>
+        <v>2862.97</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3621.920000</v>
+        <v>-3621.92</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>71651.848694</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.903291</v>
+        <v>19.903290999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4267.140000</v>
+        <v>4267.1400000000003</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5882.510000</v>
+        <v>-5882.51</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>71478.984991</v>
+        <v>71478.984991000005</v>
       </c>
       <c r="B14" s="1">
-        <v>19.855274</v>
+        <v>19.855274000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.440000</v>
+        <v>1248.44</v>
       </c>
       <c r="D14" s="1">
-        <v>-300.657000</v>
+        <v>-300.65699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>71489.454012</v>
+        <v>71489.454012000002</v>
       </c>
       <c r="G14" s="1">
-        <v>19.858182</v>
+        <v>19.858181999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.910000</v>
+        <v>1272.9100000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.644000</v>
+        <v>-260.64400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>71499.963278</v>
+        <v>71499.963277999996</v>
       </c>
       <c r="L14" s="1">
-        <v>19.861101</v>
+        <v>19.861101000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.820000</v>
+        <v>1307.82</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.180000</v>
+        <v>-201.18</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>71510.225969</v>
+        <v>71510.225969000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.863952</v>
+        <v>19.863952000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.254000</v>
+        <v>-184.25399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>71520.426692</v>
+        <v>71520.426691999994</v>
       </c>
       <c r="V14" s="1">
         <v>19.866785</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.737000</v>
+        <v>-171.73699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>71530.633862</v>
+        <v>71530.633862000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.869621</v>
+        <v>19.869620999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.116000</v>
+        <v>-170.11600000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>71541.219976</v>
+        <v>71541.219975999993</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.872561</v>
+        <v>19.872561000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1365.330000</v>
+        <v>1365.33</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.054000</v>
+        <v>-180.054</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>71551.360684</v>
+        <v>71551.360683999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.875378</v>
+        <v>19.875378000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.820000</v>
+        <v>-209.82</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>71562.118908</v>
+        <v>71562.118908000004</v>
       </c>
       <c r="AP14" s="1">
         <v>19.878366</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1409.250000</v>
+        <v>1409.25</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.289000</v>
+        <v>-253.28899999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>71573.091406</v>
+        <v>71573.091406000007</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.881414</v>
+        <v>19.881413999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.640000</v>
+        <v>-312.64</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>71584.159135</v>
+        <v>71584.159134999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.884489</v>
+        <v>19.884488999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.076000</v>
+        <v>-364.07600000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>71595.116257</v>
+        <v>71595.116257000001</v>
       </c>
       <c r="BE14" s="1">
         <v>19.887532</v>
       </c>
       <c r="BF14" s="1">
-        <v>1541.090000</v>
+        <v>1541.09</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.284000</v>
+        <v>-609.28399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>71606.707762</v>
+        <v>71606.707762000005</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.890752</v>
+        <v>19.890751999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1697.110000</v>
+        <v>1697.11</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.690000</v>
+        <v>-1047.69</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>71617.850921</v>
+        <v>71617.850921000005</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.893847</v>
+        <v>19.893847000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.200000</v>
+        <v>1993.2</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.840000</v>
+        <v>-1804.84</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>71629.086757</v>
+        <v>71629.086756999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.896969</v>
+        <v>19.896968999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.890000</v>
+        <v>2382.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2676.020000</v>
+        <v>-2676.02</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>71640.275013</v>
+        <v>71640.275013000006</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.900076</v>
+        <v>19.900075999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2862.590000</v>
+        <v>2862.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3621.800000</v>
+        <v>-3621.8</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>71652.680453</v>
+        <v>71652.680452999994</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.903522</v>
+        <v>19.903521999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4253.360000</v>
+        <v>4253.3599999999997</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5890.340000</v>
+        <v>-5890.34</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>71479.349514</v>
+        <v>71479.349514000001</v>
       </c>
       <c r="B15" s="1">
-        <v>19.855375</v>
+        <v>19.855374999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D15" s="1">
-        <v>-300.652000</v>
+        <v>-300.65199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>71489.798732</v>
+        <v>71489.798731999996</v>
       </c>
       <c r="G15" s="1">
-        <v>19.858277</v>
+        <v>19.858277000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.320000</v>
+        <v>1272.32</v>
       </c>
       <c r="I15" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>71500.313918</v>
       </c>
       <c r="L15" s="1">
-        <v>19.861198</v>
+        <v>19.861198000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.429000</v>
+        <v>-201.429</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>71510.576641</v>
+        <v>71510.576641000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.864049</v>
+        <v>19.864049000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.345000</v>
+        <v>-184.345</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>71520.859699</v>
+        <v>71520.859698999993</v>
       </c>
       <c r="V15" s="1">
-        <v>19.866905</v>
+        <v>19.866904999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.680000</v>
+        <v>1333.68</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.591000</v>
+        <v>-171.59100000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>71531.319830</v>
+        <v>71531.319829999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.869811</v>
+        <v>19.869810999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.124000</v>
+        <v>-170.124</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>71541.520554</v>
+        <v>71541.520554000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.872645</v>
+        <v>19.872644999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.973000</v>
+        <v>-179.97300000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>71551.709867</v>
+        <v>71551.709866999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.875475</v>
+        <v>19.875475000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1386.830000</v>
+        <v>1386.83</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.868000</v>
+        <v>-209.86799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>71562.482478</v>
+        <v>71562.482478000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.878467</v>
+        <v>19.878467000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1409.260000</v>
+        <v>1409.26</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.273000</v>
+        <v>-253.273</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>71573.455470</v>
+        <v>71573.455470000001</v>
       </c>
       <c r="AU15" s="1">
         <v>19.881515</v>
       </c>
       <c r="AV15" s="1">
-        <v>1434.570000</v>
+        <v>1434.57</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.630000</v>
+        <v>-312.63</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>71584.876350</v>
+        <v>71584.876350000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.884688</v>
+        <v>19.884688000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.133000</v>
+        <v>-364.13299999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>71595.834960</v>
+        <v>71595.834959999993</v>
       </c>
       <c r="BE15" s="1">
         <v>19.887732</v>
       </c>
       <c r="BF15" s="1">
-        <v>1541.080000</v>
+        <v>1541.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.231000</v>
+        <v>-609.23099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>71607.084239</v>
+        <v>71607.084239000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.890857</v>
       </c>
       <c r="BK15" s="1">
-        <v>1697.170000</v>
+        <v>1697.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>71618.271490</v>
+        <v>71618.271489999999</v>
       </c>
       <c r="BO15" s="1">
         <v>19.893964</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.180000</v>
+        <v>1993.18</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.710000</v>
+        <v>-1804.71</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>71629.819876</v>
+        <v>71629.819875999994</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.897172</v>
+        <v>19.897172000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2383.440000</v>
+        <v>2383.44</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2675.980000</v>
+        <v>-2675.98</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>71641.043354</v>
+        <v>71641.043353999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.900290</v>
+        <v>19.900289999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2862.470000</v>
+        <v>2862.47</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3621.710000</v>
+        <v>-3621.71</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>71652.882324</v>
+        <v>71652.882324000006</v>
       </c>
       <c r="CD15" s="1">
         <v>19.903578</v>
       </c>
       <c r="CE15" s="1">
-        <v>4263.120000</v>
+        <v>4263.12</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5904.590000</v>
+        <v>-5904.59</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>71479.694233</v>
+        <v>71479.694233000002</v>
       </c>
       <c r="B16" s="1">
-        <v>19.855471</v>
+        <v>19.855471000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D16" s="1">
-        <v>-300.746000</v>
+        <v>-300.74599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>71490.146924</v>
+        <v>71490.146924000001</v>
       </c>
       <c r="G16" s="1">
-        <v>19.858374</v>
+        <v>19.858374000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.090000</v>
+        <v>1272.0899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.510000</v>
+        <v>-260.51</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>71500.742003</v>
+        <v>71500.742003000007</v>
       </c>
       <c r="L16" s="1">
         <v>19.861317</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.371000</v>
+        <v>-201.37100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>71510.999233</v>
+        <v>71510.999232999995</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.864166</v>
+        <v>19.864166000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.820000</v>
+        <v>1319.82</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.357000</v>
+        <v>-184.357</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>71521.124562</v>
+        <v>71521.124561999997</v>
       </c>
       <c r="V16" s="1">
-        <v>19.866979</v>
+        <v>19.866979000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.500000</v>
+        <v>1333.5</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.565000</v>
+        <v>-171.565</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>71531.668024</v>
+        <v>71531.668023999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.869908</v>
+        <v>19.869907999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.810000</v>
+        <v>1351.81</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.933000</v>
+        <v>-169.93299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>71541.864807</v>
+        <v>71541.864807000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.872740</v>
+        <v>19.87274</v>
       </c>
       <c r="AG16" s="1">
-        <v>1365.320000</v>
+        <v>1365.32</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.014000</v>
+        <v>-180.01400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>71552.060041</v>
+        <v>71552.060041000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.875572</v>
+        <v>19.875571999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.851000</v>
+        <v>-209.851</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>71562.844061</v>
+        <v>71562.844060999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.878568</v>
+        <v>19.878568000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.281000</v>
+        <v>-253.28100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>71574.187085</v>
+        <v>71574.187084999998</v>
       </c>
       <c r="AU16" s="1">
         <v>19.881719</v>
       </c>
       <c r="AV16" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.606000</v>
+        <v>-312.60599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>71585.234973</v>
+        <v>71585.234972999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.884787</v>
+        <v>19.884786999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.149000</v>
+        <v>-364.149</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>71596.194560</v>
+        <v>71596.194560000004</v>
       </c>
       <c r="BE16" s="1">
         <v>19.887832</v>
       </c>
       <c r="BF16" s="1">
-        <v>1541.060000</v>
+        <v>1541.06</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.237000</v>
+        <v>-609.23699999999997</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>71607.457712</v>
+        <v>71607.457712000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.890960</v>
+        <v>19.89096</v>
       </c>
       <c r="BK16" s="1">
-        <v>1697.060000</v>
+        <v>1697.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.740000</v>
+        <v>-1047.74</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>71618.990225</v>
+        <v>71618.990225000001</v>
       </c>
       <c r="BO16" s="1">
         <v>19.894164</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.220000</v>
+        <v>1993.22</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.520000</v>
+        <v>-1804.52</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>71629.944339</v>
+        <v>71629.944338999994</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.897207</v>
+        <v>19.897207000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2383.270000</v>
+        <v>2383.27</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2675.990000</v>
+        <v>-2675.99</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>71641.179716</v>
+        <v>71641.179715999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.900328</v>
+        <v>19.900327999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.260000</v>
+        <v>2863.26</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3621.800000</v>
+        <v>-3621.8</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>71653.402132</v>
+        <v>71653.402132000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.903723</v>
+        <v>19.903722999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4259.610000</v>
+        <v>4259.6099999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5902.610000</v>
+        <v>-5902.61</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>71480.036988</v>
+        <v>71480.036988000007</v>
       </c>
       <c r="B17" s="1">
         <v>19.855566</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-300.773000</v>
+        <v>-300.77300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>71490.583900</v>
+        <v>71490.583899999998</v>
       </c>
       <c r="G17" s="1">
-        <v>19.858496</v>
+        <v>19.858495999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.675000</v>
+        <v>-260.67500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>71501.016749</v>
+        <v>71501.016749000002</v>
       </c>
       <c r="L17" s="1">
-        <v>19.861394</v>
+        <v>19.861394000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.670000</v>
+        <v>1307.67</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.254000</v>
+        <v>-201.25399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>71511.282447</v>
+        <v>71511.282447000005</v>
       </c>
       <c r="Q17" s="1">
         <v>19.864245</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.343000</v>
+        <v>-184.34299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>71521.465842</v>
+        <v>71521.465842000005</v>
       </c>
       <c r="V17" s="1">
-        <v>19.867074</v>
+        <v>19.867073999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.350000</v>
+        <v>1333.35</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.636000</v>
+        <v>-171.636</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>71532.018692</v>
+        <v>71532.018691999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.870005</v>
+        <v>19.870004999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.142000</v>
+        <v>-170.142</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>71542.209495</v>
+        <v>71542.209495000003</v>
       </c>
       <c r="AF17" s="1">
         <v>19.872836</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.340000</v>
+        <v>1365.34</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.008000</v>
+        <v>-180.00800000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>71552.757914</v>
+        <v>71552.757914000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.875766</v>
+        <v>19.875765999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1386.860000</v>
+        <v>1386.86</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>71563.570203</v>
+        <v>71563.570202999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.878770</v>
+        <v>19.878769999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.284000</v>
+        <v>-253.28399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>71574.578412</v>
+        <v>71574.578412000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.881827</v>
+        <v>19.881827000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.626000</v>
+        <v>-312.62599999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>71585.594559</v>
+        <v>71585.594559000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.884887</v>
+        <v>19.884886999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.101000</v>
+        <v>-364.101</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>71596.866846</v>
+        <v>71596.866846000004</v>
       </c>
       <c r="BE17" s="1">
         <v>19.888019</v>
       </c>
       <c r="BF17" s="1">
-        <v>1541.050000</v>
+        <v>1541.05</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.243000</v>
+        <v>-609.24300000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>71608.159056</v>
+        <v>71608.159056000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.891155</v>
+        <v>19.891155000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1697.110000</v>
+        <v>1697.11</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.610000</v>
+        <v>-1047.6099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>71619.100801</v>
+        <v>71619.100800999993</v>
       </c>
       <c r="BO17" s="1">
         <v>19.894195</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.120000</v>
+        <v>1993.12</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.780000</v>
+        <v>-1804.78</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>71630.363761</v>
+        <v>71630.363761000001</v>
       </c>
       <c r="BT17" s="1">
         <v>19.897323</v>
       </c>
       <c r="BU17" s="1">
-        <v>2383.410000</v>
+        <v>2383.41</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2676.130000</v>
+        <v>-2676.13</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>71641.601811</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.900445</v>
+        <v>19.900445000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2862.670000</v>
+        <v>2862.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3621.250000</v>
+        <v>-3621.25</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>71653.951732</v>
+        <v>71653.951732000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.903875</v>
+        <v>19.903874999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4254.590000</v>
+        <v>4254.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5893.240000</v>
+        <v>-5893.24</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>71480.468986</v>
+        <v>71480.468986000007</v>
       </c>
       <c r="B18" s="1">
-        <v>19.855686</v>
+        <v>19.855685999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D18" s="1">
-        <v>-300.934000</v>
+        <v>-300.93400000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>71490.861691</v>
+        <v>71490.861690999998</v>
       </c>
       <c r="G18" s="1">
         <v>19.858573</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.480000</v>
+        <v>1272.48</v>
       </c>
       <c r="I18" s="1">
-        <v>-260.607000</v>
+        <v>-260.60700000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>71501.364445</v>
+        <v>71501.364444999999</v>
       </c>
       <c r="L18" s="1">
-        <v>19.861490</v>
+        <v>19.86149</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.930000</v>
+        <v>1307.93</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.390000</v>
+        <v>-201.39</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>71511.630144</v>
+        <v>71511.630143999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.864342</v>
+        <v>19.864342000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.242000</v>
+        <v>-184.24199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>71521.809571</v>
+        <v>71521.809571000005</v>
       </c>
       <c r="V18" s="1">
-        <v>19.867169</v>
+        <v>19.867169000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.714000</v>
+        <v>-171.714</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>71532.711140</v>
+        <v>71532.711139999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.870198</v>
+        <v>19.870197999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.830000</v>
+        <v>1351.83</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.134000</v>
+        <v>-170.13399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>71542.892983</v>
+        <v>71542.892982999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.873026</v>
+        <v>19.873025999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.043000</v>
+        <v>-180.04300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>71553.110103</v>
+        <v>71553.110102999999</v>
       </c>
       <c r="AK18" s="1">
         <v>19.875864</v>
       </c>
       <c r="AL18" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>71563.951626</v>
+        <v>71563.951625999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.878875</v>
+        <v>19.878875000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.265000</v>
+        <v>-253.26499999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>71574.931563</v>
+        <v>71574.931563000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.881925</v>
+        <v>19.881924999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1434.540000</v>
+        <v>1434.54</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.593000</v>
+        <v>-312.59300000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>71586.266142</v>
+        <v>71586.266141999993</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.885074</v>
+        <v>19.885073999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.122000</v>
+        <v>-364.12200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>71597.305598</v>
+        <v>71597.305598000006</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.888140</v>
+        <v>19.88814</v>
       </c>
       <c r="BF18" s="1">
-        <v>1541.050000</v>
+        <v>1541.05</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.305000</v>
+        <v>-609.30499999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>71608.617359</v>
+        <v>71608.617358999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.891283</v>
+        <v>19.891283000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1697.060000</v>
+        <v>1697.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.720000</v>
+        <v>-1047.72</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>71619.513473</v>
+        <v>71619.513472999999</v>
       </c>
       <c r="BO18" s="1">
         <v>19.894309</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.250000</v>
+        <v>1993.25</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.770000</v>
+        <v>-1804.77</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>71630.774146</v>
+        <v>71630.774145999996</v>
       </c>
       <c r="BT18" s="1">
         <v>19.897437</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.760000</v>
+        <v>2382.7600000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2676.080000</v>
+        <v>-2676.08</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>71642.020930</v>
+        <v>71642.020929999999</v>
       </c>
       <c r="BY18" s="1">
         <v>19.900561</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2863.300000</v>
+        <v>2863.3</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3621.630000</v>
+        <v>-3621.63</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>71654.478278</v>
+        <v>71654.478277999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.904022</v>
+        <v>19.904022000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4265.870000</v>
+        <v>4265.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5904.550000</v>
+        <v>-5904.55</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>71480.735832</v>
+        <v>71480.735832000006</v>
       </c>
       <c r="B19" s="1">
-        <v>19.855760</v>
+        <v>19.85576</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D19" s="1">
-        <v>-300.905000</v>
+        <v>-300.90499999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>71491.207403</v>
+        <v>71491.207402999993</v>
       </c>
       <c r="G19" s="1">
-        <v>19.858669</v>
+        <v>19.858668999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.540000</v>
+        <v>1272.54</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.828000</v>
+        <v>-260.82799999999997</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>71501.708713</v>
       </c>
       <c r="L19" s="1">
-        <v>19.861586</v>
+        <v>19.861585999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.900000</v>
+        <v>1307.9000000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.710000</v>
+        <v>-201.71</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>71511.976847</v>
+        <v>71511.976846999998</v>
       </c>
       <c r="Q19" s="1">
         <v>19.864438</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.279000</v>
+        <v>-184.279</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>71522.494018</v>
+        <v>71522.494017999998</v>
       </c>
       <c r="V19" s="1">
         <v>19.867359</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.659000</v>
+        <v>-171.65899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>71533.059795</v>
+        <v>71533.059794999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.870294</v>
+        <v>19.870294000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.700000</v>
+        <v>1351.7</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.176000</v>
+        <v>-170.17599999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>71543.238383</v>
+        <v>71543.238383000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.873122</v>
+        <v>19.873121999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.270000</v>
+        <v>1365.27</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.980000</v>
+        <v>-179.98</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>71553.458792</v>
+        <v>71553.458792000005</v>
       </c>
       <c r="AK19" s="1">
         <v>19.875961</v>
       </c>
       <c r="AL19" s="1">
-        <v>1386.830000</v>
+        <v>1386.83</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.808000</v>
+        <v>-209.80799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>71564.626681</v>
+        <v>71564.626680999994</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.879063</v>
+        <v>19.879062999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1409.310000</v>
+        <v>1409.31</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.270000</v>
+        <v>-253.27</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>71575.627981</v>
+        <v>71575.627980999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.882119</v>
+        <v>19.882118999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.626000</v>
+        <v>-312.62599999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>71586.702620</v>
+        <v>71586.702619999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>19.885195</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.090000</v>
+        <v>-364.09</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>71597.669173</v>
+        <v>71597.669173000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.888241</v>
+        <v>19.888241000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.249000</v>
+        <v>-609.24900000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>71609.007712</v>
+        <v>71609.007712000006</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.891391</v>
+        <v>19.891390999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1697.060000</v>
+        <v>1697.06</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>71619.910305</v>
+        <v>71619.910304999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.894420</v>
+        <v>19.89442</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.220000</v>
+        <v>1993.22</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1804.720000</v>
+        <v>-1804.72</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>71631.205169</v>
+        <v>71631.205168999993</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.897557</v>
+        <v>19.897556999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.260000</v>
+        <v>2383.2600000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2676.140000</v>
+        <v>-2676.14</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>71642.476259</v>
+        <v>71642.476259000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.900688</v>
+        <v>19.900687999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2862.410000</v>
+        <v>2862.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3621.730000</v>
+        <v>-3621.73</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>71655.001729</v>
+        <v>71655.001728999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.904167</v>
+        <v>19.904167000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4276.800000</v>
+        <v>4276.8</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5890.860000</v>
+        <v>-5890.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>71481.082040</v>
+        <v>71481.082039999994</v>
       </c>
       <c r="B20" s="1">
-        <v>19.855856</v>
+        <v>19.855855999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.250000</v>
+        <v>1248.25</v>
       </c>
       <c r="D20" s="1">
-        <v>-300.578000</v>
+        <v>-300.57799999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>71491.550602</v>
+        <v>71491.550602000003</v>
       </c>
       <c r="G20" s="1">
-        <v>19.858764</v>
+        <v>19.858764000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.900000</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-260.991000</v>
+        <v>-260.99099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>71502.402571</v>
+        <v>71502.402570999999</v>
       </c>
       <c r="L20" s="1">
-        <v>19.861778</v>
+        <v>19.861778000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.387000</v>
+        <v>-201.387</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>71512.674222</v>
+        <v>71512.674222000001</v>
       </c>
       <c r="Q20" s="1">
         <v>19.864632</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.920000</v>
+        <v>1319.92</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.295000</v>
+        <v>-184.29499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>71522.838769</v>
+        <v>71522.838768999994</v>
       </c>
       <c r="V20" s="1">
         <v>19.867455</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.497000</v>
+        <v>-171.49700000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>71533.411459</v>
+        <v>71533.411458999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.870392</v>
+        <v>19.870391999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.760000</v>
+        <v>1351.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.162000</v>
+        <v>-170.16200000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>71543.579976</v>
+        <v>71543.579975999994</v>
       </c>
       <c r="AF20" s="1">
         <v>19.873217</v>
       </c>
       <c r="AG20" s="1">
-        <v>1365.320000</v>
+        <v>1365.32</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.943000</v>
+        <v>-179.94300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>71554.129388</v>
+        <v>71554.129388000001</v>
       </c>
       <c r="AK20" s="1">
         <v>19.876147</v>
       </c>
       <c r="AL20" s="1">
-        <v>1386.810000</v>
+        <v>1386.81</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.799000</v>
+        <v>-209.79900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>71565.028440</v>
+        <v>71565.028439999995</v>
       </c>
       <c r="AP20" s="1">
         <v>19.879175</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.284000</v>
+        <v>-253.28399999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>71576.035446</v>
+        <v>71576.035445999994</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.882232</v>
+        <v>19.882231999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1434.560000</v>
+        <v>1434.56</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.608000</v>
+        <v>-312.608</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>71587.055771</v>
+        <v>71587.055770999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.885293</v>
+        <v>19.885293000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.330000</v>
+        <v>1454.33</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.105000</v>
+        <v>-364.10500000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>71598.028766</v>
+        <v>71598.028766000003</v>
       </c>
       <c r="BE20" s="1">
         <v>19.888341</v>
       </c>
       <c r="BF20" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.246000</v>
+        <v>-609.24599999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>71609.383214</v>
+        <v>71609.383214000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.891495</v>
+        <v>19.891494999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1697.040000</v>
+        <v>1697.04</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>71620.357168</v>
+        <v>71620.357168000002</v>
       </c>
       <c r="BO20" s="1">
         <v>19.894544</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.230000</v>
+        <v>1993.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.700000</v>
+        <v>-1804.7</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>71631.607920</v>
+        <v>71631.607919999995</v>
       </c>
       <c r="BT20" s="1">
         <v>19.897669</v>
       </c>
       <c r="BU20" s="1">
-        <v>2383.150000</v>
+        <v>2383.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2676.010000</v>
+        <v>-2676.01</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>71642.892900</v>
+        <v>71642.892900000006</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.900804</v>
+        <v>19.900804000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2861.980000</v>
+        <v>2861.98</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3621.570000</v>
+        <v>-3621.57</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>71655.518561</v>
+        <v>71655.518561000004</v>
       </c>
       <c r="CD20" s="1">
         <v>19.904311</v>
       </c>
       <c r="CE20" s="1">
-        <v>4261.990000</v>
+        <v>4261.99</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5881.450000</v>
+        <v>-5881.45</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>71481.418327</v>
+        <v>71481.418327000007</v>
       </c>
       <c r="B21" s="1">
-        <v>19.855950</v>
+        <v>19.85595</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.820000</v>
+        <v>1247.82</v>
       </c>
       <c r="D21" s="1">
-        <v>-300.851000</v>
+        <v>-300.851</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>71492.239048</v>
+        <v>71492.239048000003</v>
       </c>
       <c r="G21" s="1">
-        <v>19.858955</v>
+        <v>19.858955000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.550000</v>
+        <v>1272.55</v>
       </c>
       <c r="I21" s="1">
-        <v>-260.275000</v>
+        <v>-260.27499999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>71502.754235</v>
       </c>
       <c r="L21" s="1">
-        <v>19.861876</v>
+        <v>19.861875999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.160000</v>
+        <v>-201.16</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>71513.021917</v>
+        <v>71513.021917000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.864728</v>
+        <v>19.864727999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.940000</v>
+        <v>1319.94</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.371000</v>
+        <v>-184.37100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>71523.183456</v>
+        <v>71523.183455999999</v>
       </c>
       <c r="V21" s="1">
-        <v>19.867551</v>
+        <v>19.867550999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.380000</v>
+        <v>1333.38</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.721000</v>
+        <v>-171.721</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>71534.074609</v>
+        <v>71534.074609000003</v>
       </c>
       <c r="AA21" s="1">
         <v>19.870576</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.680000</v>
+        <v>1351.68</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.028000</v>
+        <v>-170.02799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>71544.253012</v>
+        <v>71544.253012000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.873404</v>
+        <v>19.873404000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1365.340000</v>
+        <v>1365.34</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.983000</v>
+        <v>-179.983</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>71554.507799</v>
+        <v>71554.507798999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.876252</v>
+        <v>19.876252000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.807000</v>
+        <v>-209.80699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>71565.392041</v>
+        <v>71565.392040999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.879276</v>
+        <v>19.879276000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.299000</v>
+        <v>-253.29900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>71576.398233</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.882333</v>
+        <v>19.882332999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1434.530000</v>
+        <v>1434.53</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.602000</v>
+        <v>-312.60199999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>71587.420331</v>
+        <v>71587.420331000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.885395</v>
+        <v>19.885394999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.330000</v>
+        <v>1454.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.088000</v>
+        <v>-364.08800000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>71598.456812</v>
+        <v>71598.456812000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.888460</v>
+        <v>19.888459999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1541.060000</v>
+        <v>1541.06</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.242000</v>
+        <v>-609.24199999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>71609.811726</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.891614</v>
+        <v>19.891614000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1697.110000</v>
+        <v>1697.11</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>71620.732639</v>
+        <v>71620.732638999994</v>
       </c>
       <c r="BO21" s="1">
         <v>19.894648</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.080000</v>
+        <v>1993.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.540000</v>
+        <v>-1804.54</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>71632.021585</v>
+        <v>71632.021584999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.897784</v>
+        <v>19.897784000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2383.090000</v>
+        <v>2383.09</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2676.150000</v>
+        <v>-2676.15</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>71643.343762</v>
+        <v>71643.343762000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.900929</v>
+        <v>19.900929000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2862.240000</v>
+        <v>2862.24</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3622.200000</v>
+        <v>-3622.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>71656.036384</v>
+        <v>71656.036384000006</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.904455</v>
+        <v>19.904454999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4256.080000</v>
+        <v>4256.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5896.990000</v>
+        <v>-5896.99</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>71482.116199</v>
+        <v>71482.116198999996</v>
       </c>
       <c r="B22" s="1">
-        <v>19.856143</v>
+        <v>19.856142999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.780000</v>
+        <v>1247.78</v>
       </c>
       <c r="D22" s="1">
-        <v>-300.640000</v>
+        <v>-300.64</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>71492.584760</v>
+        <v>71492.584759999998</v>
       </c>
       <c r="G22" s="1">
-        <v>19.859051</v>
+        <v>19.859051000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.290000</v>
+        <v>1272.29</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.602000</v>
+        <v>-261.60199999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>71503.099985</v>
+        <v>71503.099984999993</v>
       </c>
       <c r="L22" s="1">
-        <v>19.861972</v>
+        <v>19.861972000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1308.090000</v>
+        <v>1308.0899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.419000</v>
+        <v>-201.41900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>71513.372093</v>
+        <v>71513.372092999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.864826</v>
+        <v>19.864826000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.340000</v>
+        <v>-184.34</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>71523.859039</v>
+        <v>71523.859039000003</v>
       </c>
       <c r="V22" s="1">
         <v>19.867739</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.677000</v>
+        <v>-171.67699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>71534.460993</v>
+        <v>71534.460993000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.870684</v>
+        <v>19.870684000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.236000</v>
+        <v>-170.23599999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>71544.618067</v>
+        <v>71544.618067000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.873505</v>
+        <v>19.873505000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1365.340000</v>
+        <v>1365.34</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.017000</v>
+        <v>-180.017</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>71554.851526</v>
+        <v>71554.851525999999</v>
       </c>
       <c r="AK22" s="1">
         <v>19.876348</v>
       </c>
       <c r="AL22" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.806000</v>
+        <v>-209.80600000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>71565.753597</v>
+        <v>71565.753597000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.879376</v>
+        <v>19.879376000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1409.300000</v>
+        <v>1409.3</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.262000</v>
+        <v>-253.262</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>71576.765801</v>
+        <v>71576.765801000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.882435</v>
+        <v>19.882435000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1434.550000</v>
+        <v>1434.55</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.601000</v>
+        <v>-312.601</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>71587.855819</v>
+        <v>71587.855819000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.885516</v>
+        <v>19.885515999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.340000</v>
+        <v>1454.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.065000</v>
+        <v>-364.065</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>71598.752428</v>
+        <v>71598.752428000007</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.888542</v>
+        <v>19.888542000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1541.060000</v>
+        <v>1541.06</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.216000</v>
+        <v>-609.21600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>71610.139084</v>
+        <v>71610.139083999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.891705</v>
+        <v>19.891705000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1697.030000</v>
+        <v>1697.03</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.630000</v>
+        <v>-1047.6300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>71621.147890</v>
+        <v>71621.147889999993</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.894763</v>
+        <v>19.894763000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.180000</v>
+        <v>1993.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.630000</v>
+        <v>-1804.63</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>71632.438719</v>
+        <v>71632.438718999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.897900</v>
+        <v>19.8979</v>
       </c>
       <c r="BU22" s="1">
-        <v>2382.810000</v>
+        <v>2382.81</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2676.380000</v>
+        <v>-2676.38</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>71643.762644</v>
+        <v>71643.762644000002</v>
       </c>
       <c r="BY22" s="1">
         <v>19.901045</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2862.620000</v>
+        <v>2862.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3620.980000</v>
+        <v>-3620.98</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>71656.552720</v>
+        <v>71656.552720000007</v>
       </c>
       <c r="CD22" s="1">
         <v>19.904598</v>
       </c>
       <c r="CE22" s="1">
-        <v>4272.680000</v>
+        <v>4272.68</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5899.400000</v>
+        <v>-5899.4</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>71482.445575</v>
+        <v>71482.445575000005</v>
       </c>
       <c r="B23" s="1">
-        <v>19.856235</v>
+        <v>19.856235000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.716000</v>
+        <v>-300.71600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>71492.934936</v>
+        <v>71492.934936000005</v>
       </c>
       <c r="G23" s="1">
-        <v>19.859149</v>
+        <v>19.859148999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1271.850000</v>
+        <v>1271.8499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.712000</v>
+        <v>-260.71199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>71503.764587</v>
+        <v>71503.764586999998</v>
       </c>
       <c r="L23" s="1">
         <v>19.862157</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.680000</v>
+        <v>1307.68</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.379000</v>
+        <v>-201.37899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>71514.038716</v>
+        <v>71514.038715999995</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.865011</v>
+        <v>19.865010999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.216000</v>
+        <v>-184.21600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>71524.224094</v>
+        <v>71524.224094000005</v>
       </c>
       <c r="V23" s="1">
-        <v>19.867840</v>
+        <v>19.867840000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.580000</v>
+        <v>1333.58</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.565000</v>
+        <v>-171.565</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>71534.811696</v>
+        <v>71534.811696000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.870781</v>
+        <v>19.870781000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.038000</v>
+        <v>-170.03800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>71544.967747</v>
+        <v>71544.967747000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.873602</v>
+        <v>19.873602000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.933000</v>
+        <v>-179.93299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>71555.201734</v>
+        <v>71555.201734000002</v>
       </c>
       <c r="AK23" s="1">
         <v>19.876445</v>
       </c>
       <c r="AL23" s="1">
-        <v>1386.810000</v>
+        <v>1386.81</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.782000</v>
+        <v>-209.78200000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>71566.192551</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.879498</v>
+        <v>19.879498000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1409.260000</v>
+        <v>1409.26</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.280000</v>
+        <v>-253.28</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>71577.192824</v>
+        <v>71577.192823999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.882554</v>
+        <v>19.882553999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1434.540000</v>
+        <v>1434.54</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.635000</v>
+        <v>-312.63499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>71588.134570</v>
+        <v>71588.134569999995</v>
       </c>
       <c r="AZ23" s="1">
         <v>19.885593</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.310000</v>
+        <v>1454.31</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.099000</v>
+        <v>-364.09899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>71599.113526</v>
+        <v>71599.113526000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.888643</v>
+        <v>19.888642999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1541.050000</v>
+        <v>1541.05</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.219000</v>
+        <v>-609.21900000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>71610.517569</v>
+        <v>71610.517569000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.891810</v>
+        <v>19.89181</v>
       </c>
       <c r="BK23" s="1">
-        <v>1697.070000</v>
+        <v>1697.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.600000</v>
+        <v>-1047.5999999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>71621.547944</v>
+        <v>71621.547944000005</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.894874</v>
+        <v>19.894874000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.130000</v>
+        <v>1993.13</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.440000</v>
+        <v>-1804.44</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>71633.266542</v>
+        <v>71633.266541999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.898130</v>
+        <v>19.898129999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.810000</v>
+        <v>2382.81</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2676.170000</v>
+        <v>-2676.17</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>71644.185009</v>
+        <v>71644.185008999993</v>
       </c>
       <c r="BY23" s="1">
         <v>19.901163</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2862.350000</v>
+        <v>2862.35</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3621.280000</v>
+        <v>-3621.28</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>71657.069592</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.904742</v>
+        <v>19.904741999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4265.810000</v>
+        <v>4265.8100000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5903.630000</v>
+        <v>-5903.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>71483.105718</v>
+        <v>71483.105718000006</v>
       </c>
       <c r="B24" s="1">
-        <v>19.856418</v>
+        <v>19.856418000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.340000</v>
+        <v>1248.3399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-300.600000</v>
+        <v>-300.60000000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>71493.601063</v>
+        <v>71493.601062999995</v>
       </c>
       <c r="G24" s="1">
         <v>19.859334</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.220000</v>
+        <v>1272.22</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.261000</v>
+        <v>-261.26100000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>71504.136617</v>
+        <v>71504.136616999996</v>
       </c>
       <c r="L24" s="1">
-        <v>19.862260</v>
+        <v>19.862259999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.770000</v>
+        <v>1307.77</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.364000</v>
+        <v>-201.364</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>71514.456844</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.865127</v>
+        <v>19.865127000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.920000</v>
+        <v>1319.92</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.252000</v>
+        <v>-184.25200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>71524.568782</v>
+        <v>71524.568782000002</v>
       </c>
       <c r="V24" s="1">
         <v>19.867936</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.450000</v>
+        <v>1333.45</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.900000</v>
+        <v>-171.9</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>71535.158368</v>
+        <v>71535.158368000004</v>
       </c>
       <c r="AA24" s="1">
         <v>19.870877</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.780000</v>
+        <v>1351.78</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.207000</v>
+        <v>-170.20699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>71545.310019</v>
+        <v>71545.310018999997</v>
       </c>
       <c r="AF24" s="1">
         <v>19.873697</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.250000</v>
+        <v>1365.25</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.873000</v>
+        <v>-179.87299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>71555.627302</v>
+        <v>71555.627301999994</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.876563</v>
+        <v>19.876563000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1386.840000</v>
+        <v>1386.84</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.821000</v>
+        <v>-209.821</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>71566.471340</v>
+        <v>71566.471340000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.879575</v>
+        <v>19.879574999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1409.310000</v>
+        <v>1409.31</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.291000</v>
+        <v>-253.291</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>71577.492441</v>
+        <v>71577.492440999995</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.882637</v>
+        <v>19.882636999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1434.520000</v>
+        <v>1434.52</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.592000</v>
+        <v>-312.59199999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>71588.491194</v>
+        <v>71588.491194000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.885692</v>
+        <v>19.885691999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.320000</v>
+        <v>1454.32</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.140000</v>
+        <v>-364.14</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>71599.475099</v>
+        <v>71599.475099000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.888743</v>
+        <v>19.888743000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.246000</v>
+        <v>-609.24599999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>71610.908877</v>
+        <v>71610.908876999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.891919</v>
+        <v>19.891919000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1697.000000</v>
+        <v>1697</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.590000</v>
+        <v>-1047.5899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>71621.981201</v>
+        <v>71621.981201000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.894995</v>
+        <v>19.894995000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.190000</v>
+        <v>1993.19</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.430000</v>
+        <v>-1804.43</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>71633.699550</v>
+        <v>71633.699550000005</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.898250</v>
+        <v>19.898250000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2382.640000</v>
+        <v>2382.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2676.510000</v>
+        <v>-2676.51</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>71644.634847</v>
+        <v>71644.634846999994</v>
       </c>
       <c r="BY24" s="1">
         <v>19.901287</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2862.510000</v>
+        <v>2862.51</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3621.710000</v>
+        <v>-3621.71</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>71657.625103</v>
+        <v>71657.625102999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.904896</v>
+        <v>19.904896000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4255.310000</v>
+        <v>4255.3100000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5895.150000</v>
+        <v>-5895.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>71483.468788</v>
+        <v>71483.468787999998</v>
       </c>
       <c r="B25" s="1">
-        <v>19.856519</v>
+        <v>19.856518999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.150000</v>
+        <v>1248.1500000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-300.899000</v>
+        <v>-300.899</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>71493.970086</v>
+        <v>71493.970086000001</v>
       </c>
       <c r="G25" s="1">
-        <v>19.859436</v>
+        <v>19.859435999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.260000</v>
+        <v>1272.26</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.432000</v>
+        <v>-260.43200000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>71504.480809</v>
+        <v>71504.480809000001</v>
       </c>
       <c r="L25" s="1">
-        <v>19.862356</v>
+        <v>19.862355999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.860000</v>
+        <v>1307.8599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.304000</v>
+        <v>-201.304</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>71514.768331</v>
+        <v>71514.768330999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.865213</v>
+        <v>19.865213000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.294000</v>
+        <v>-184.29400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>71524.913535</v>
       </c>
       <c r="V25" s="1">
-        <v>19.868032</v>
+        <v>19.868031999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.580000</v>
+        <v>1333.58</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.465000</v>
+        <v>-171.465</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>71535.594849</v>
+        <v>71535.594849000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.870999</v>
+        <v>19.870999000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.750000</v>
+        <v>1351.75</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.131000</v>
+        <v>-170.131</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>71545.743026</v>
+        <v>71545.743025999996</v>
       </c>
       <c r="AF25" s="1">
         <v>19.873818</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.022000</v>
+        <v>-180.02199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>71555.905562</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.876640</v>
+        <v>19.876639999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.835000</v>
+        <v>-209.83500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>71566.833382</v>
+        <v>71566.833381999997</v>
       </c>
       <c r="AP25" s="1">
         <v>19.879676</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.232000</v>
+        <v>-253.232</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>71577.867383</v>
+        <v>71577.867383000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.882741</v>
+        <v>19.882740999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1434.520000</v>
+        <v>1434.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.609000</v>
+        <v>-312.60899999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>71588.851785</v>
+        <v>71588.851785000006</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.885792</v>
+        <v>19.885791999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.320000</v>
+        <v>1454.32</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.101000</v>
+        <v>-364.101</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>71600.196778</v>
+        <v>71600.196777999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.888944</v>
+        <v>19.888943999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1541.020000</v>
+        <v>1541.02</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.249000</v>
+        <v>-609.24900000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>71611.661308</v>
+        <v>71611.661307999995</v>
       </c>
       <c r="BJ25" s="1">
         <v>19.892128</v>
       </c>
       <c r="BK25" s="1">
-        <v>1697.050000</v>
+        <v>1697.05</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.600000</v>
+        <v>-1047.5999999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>71622.364477</v>
+        <v>71622.364476999996</v>
       </c>
       <c r="BO25" s="1">
         <v>19.895101</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.210000</v>
+        <v>1993.21</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1804.540000</v>
+        <v>-1804.54</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>71634.111725</v>
+        <v>71634.111724999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.898364</v>
+        <v>19.898364000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2382.690000</v>
+        <v>2382.69</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2676.500000</v>
+        <v>-2676.5</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>71645.068847</v>
+        <v>71645.068847000002</v>
       </c>
       <c r="BY25" s="1">
         <v>19.901408</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2863.030000</v>
+        <v>2863.03</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3621.680000</v>
+        <v>-3621.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>71658.468797</v>
+        <v>71658.468796999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.905130</v>
+        <v>19.90513</v>
       </c>
       <c r="CE25" s="1">
-        <v>4271.200000</v>
+        <v>4271.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5900.250000</v>
+        <v>-5900.25</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>71483.823924</v>
+        <v>71483.823923999997</v>
       </c>
       <c r="B26" s="1">
-        <v>19.856618</v>
+        <v>19.856618000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.170000</v>
+        <v>1248.17</v>
       </c>
       <c r="D26" s="1">
-        <v>-300.829000</v>
+        <v>-300.82900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>71494.316302</v>
+        <v>71494.316302000007</v>
       </c>
       <c r="G26" s="1">
-        <v>19.859532</v>
+        <v>19.859532000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.070000</v>
+        <v>1272.07</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.861000</v>
+        <v>-260.86099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>71504.829496</v>
+        <v>71504.829496000006</v>
       </c>
       <c r="L26" s="1">
-        <v>19.862453</v>
+        <v>19.862452999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.710000</v>
+        <v>1307.71</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.520000</v>
+        <v>-201.52</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>71515.188938</v>
+        <v>71515.188938000007</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.865330</v>
+        <v>19.86533</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.360000</v>
+        <v>-184.36</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>71525.336589</v>
+        <v>71525.336588999999</v>
       </c>
       <c r="V26" s="1">
-        <v>19.868149</v>
+        <v>19.868148999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.570000</v>
+        <v>1333.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.563000</v>
+        <v>-171.56299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>71535.866160</v>
+        <v>71535.866160000005</v>
       </c>
       <c r="AA26" s="1">
         <v>19.871074</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.830000</v>
+        <v>1351.83</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.972000</v>
+        <v>-169.97200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>71546.008354</v>
+        <v>71546.008354000005</v>
       </c>
       <c r="AF26" s="1">
         <v>19.873891</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.400000</v>
+        <v>1365.4</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.056000</v>
+        <v>-180.05600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>71556.252758</v>
+        <v>71556.252758000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.876737</v>
+        <v>19.876736999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1386.850000</v>
+        <v>1386.85</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.827000</v>
+        <v>-209.827</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>71567.192487</v>
+        <v>71567.192486999993</v>
       </c>
       <c r="AP26" s="1">
         <v>19.879776</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.275000</v>
+        <v>-253.27500000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>71578.226026</v>
+        <v>71578.226026000004</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.882841</v>
+        <v>19.882840999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1434.560000</v>
+        <v>1434.56</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.578000</v>
+        <v>-312.57799999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>71589.571480</v>
+        <v>71589.571479999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.885992</v>
+        <v>19.885992000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.350000</v>
+        <v>1454.35</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.075000</v>
+        <v>-364.07499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>71600.558362</v>
+        <v>71600.558361999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.889044</v>
+        <v>19.889043999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1541.040000</v>
+        <v>1541.04</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.150000</v>
+        <v>-609.15</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>71612.059594</v>
+        <v>71612.059594000006</v>
       </c>
       <c r="BJ26" s="1">
         <v>19.892239</v>
       </c>
       <c r="BK26" s="1">
-        <v>1697.080000</v>
+        <v>1697.08</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.570000</v>
+        <v>-1047.57</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>71622.784092</v>
+        <v>71622.784092000002</v>
       </c>
       <c r="BO26" s="1">
         <v>19.895218</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.150000</v>
+        <v>1993.15</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1804.570000</v>
+        <v>-1804.57</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>71634.836876</v>
+        <v>71634.836876000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.898566</v>
+        <v>19.898565999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2382.220000</v>
+        <v>2382.2199999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2676.330000</v>
+        <v>-2676.33</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>71645.610974</v>
+        <v>71645.610973999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.901559</v>
+        <v>19.901558999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2862.160000</v>
+        <v>2862.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3620.970000</v>
+        <v>-3620.97</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>71658.705853</v>
+        <v>71658.705853000007</v>
       </c>
       <c r="CD26" s="1">
         <v>19.905196</v>
       </c>
       <c r="CE26" s="1">
-        <v>4272.160000</v>
+        <v>4272.16</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5881.750000</v>
+        <v>-5881.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>